--- a/Lab7C/Tab.xlsx
+++ b/Lab7C/Tab.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>RK</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>Adams</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -996,6 +1002,418 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RK</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$49:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$49:$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.9495299999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9003499999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7895100000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2045600000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9473500000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3901599999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2917899999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5800600000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7352299999999996E-10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1079099999999998E-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Adams</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$49:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$G$49:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.1905599999999996E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3556199999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.87183E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3108099999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6859E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.32895E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3064100000000004E-8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3424699999999997E-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.74033E-8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8135099999999999E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="385755880"/>
+        <c:axId val="385757840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="385755880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385757840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="385757840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385755880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1076,6 +1494,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1593,6 +2051,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2165,6 +3139,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2436,10 +3440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L38"/>
+  <dimension ref="A2:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="E33" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2685,7 +3689,7 @@
         <v>1.95543E-5</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>1.8879299999999999E-6</v>
       </c>
@@ -2693,7 +3697,7 @@
         <v>3.8065499999999997E-5</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>2.1284600000000002E-6</v>
       </c>
@@ -2701,7 +3705,7 @@
         <v>5.1554700000000003E-5</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>2.35083E-6</v>
       </c>
@@ -2709,7 +3713,7 @@
         <v>6.3390099999999995E-5</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>2.5597400000000001E-6</v>
       </c>
@@ -2717,7 +3721,7 @@
         <v>7.3950599999999996E-5</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>2.7585100000000002E-6</v>
       </c>
@@ -2725,13 +3729,187 @@
         <v>8.3341499999999995E-5</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>2.9495299999999999E-6</v>
       </c>
       <c r="D38" s="1">
         <v>9.1905599999999996E-5</v>
       </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>0.1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2.9495299999999999E-6</v>
+      </c>
+      <c r="G49" s="1">
+        <v>9.1905599999999996E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>20</v>
+      </c>
+      <c r="E50">
+        <v>0.05</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1.9003499999999999E-7</v>
+      </c>
+      <c r="G50" s="1">
+        <v>8.3556199999999998E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>30</v>
+      </c>
+      <c r="E51">
+        <v>3.3333300000000003E-2</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3.7895100000000002E-8</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1.87183E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>40</v>
+      </c>
+      <c r="E52">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1.2045600000000001E-8</v>
+      </c>
+      <c r="G52" s="1">
+        <v>6.3108099999999998E-7</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>50</v>
+      </c>
+      <c r="E53">
+        <v>0.02</v>
+      </c>
+      <c r="F53" s="1">
+        <v>4.9473500000000003E-9</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2.6859E-7</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>60</v>
+      </c>
+      <c r="E54">
+        <v>1.66667E-2</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2.3901599999999999E-9</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1.32895E-7</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>70</v>
+      </c>
+      <c r="E55">
+        <v>1.42857E-2</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1.2917899999999999E-9</v>
+      </c>
+      <c r="G55" s="1">
+        <v>7.3064100000000004E-8</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>80</v>
+      </c>
+      <c r="E56">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="F56" s="1">
+        <v>7.5800600000000002E-10</v>
+      </c>
+      <c r="G56" s="1">
+        <v>4.3424699999999997E-8</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>90</v>
+      </c>
+      <c r="E57">
+        <v>1.11111E-2</v>
+      </c>
+      <c r="F57" s="1">
+        <v>4.7352299999999996E-10</v>
+      </c>
+      <c r="G57" s="1">
+        <v>2.74033E-8</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>100</v>
+      </c>
+      <c r="E58">
+        <v>0.01</v>
+      </c>
+      <c r="F58" s="1">
+        <v>3.1079099999999998E-10</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1.8135099999999999E-8</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
